--- a/backend/leads.xlsx
+++ b/backend/leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,153 +414,103 @@
         <v>phone</v>
       </c>
       <c r="D1" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>email</v>
+      </c>
+      <c r="F1" t="str">
         <v>source</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>status</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>assigned_to</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>created_at</v>
+      </c>
+      <c r="J1" t="str">
+        <v>city</v>
+      </c>
+      <c r="K1" t="str">
+        <v>call_status</v>
+      </c>
+      <c r="L1" t="str">
+        <v>building_type</v>
+      </c>
+      <c r="M1" t="str">
+        <v>floors</v>
+      </c>
+      <c r="N1" t="str">
+        <v>measurement</v>
+      </c>
+      <c r="O1" t="str">
+        <v>sqft</v>
+      </c>
+      <c r="P1" t="str">
+        <v>budget</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>quotation_sent</v>
+      </c>
+      <c r="R1" t="str">
+        <v>project_start</v>
+      </c>
+      <c r="S1" t="str">
+        <v>snooze_until</v>
+      </c>
+      <c r="T1" t="str">
+        <v>description</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Ravi</v>
+        <v>Updated Name</v>
       </c>
       <c r="C2" t="str">
         <v>9999999999</v>
       </c>
-      <c r="D2" t="str">
-        <v>Meta</v>
-      </c>
-      <c r="E2" t="str">
-        <v>New</v>
-      </c>
       <c r="F2" t="str">
+        <v>Website</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Interested</v>
+      </c>
+      <c r="H2" t="str">
         <v>Rubina</v>
       </c>
-      <c r="G2" s="1">
-        <v>46044.843726851854</v>
+      <c r="I2" s="1">
+        <v>46042.946863425925</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Anil</v>
+        <v>Followup DB Lead</v>
       </c>
       <c r="C3" t="str">
-        <v>8888888888</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Walk-in</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Intrested</v>
+        <v>8887776665</v>
       </c>
       <c r="F3" t="str">
-        <v>Rubina</v>
-      </c>
-      <c r="G3" s="1">
-        <v>46044.843726851854</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Suresh</v>
-      </c>
-      <c r="C4" t="str">
-        <v>77777777777</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Referral</v>
-      </c>
-      <c r="E4" t="str">
-        <v>New</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Rubina</v>
-      </c>
-      <c r="G4" s="1">
-        <v>46044.843726851854</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <v>DB Lead Test</v>
-      </c>
-      <c r="C5" t="str">
-        <v>9999999999</v>
-      </c>
-      <c r="D5" t="str">
         <v>manual</v>
       </c>
-      <c r="E5" t="str">
-        <v>new</v>
-      </c>
-      <c r="G5" s="1">
-        <v>46044.77914351852</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Followup DB Lead</v>
-      </c>
-      <c r="C6" t="str">
-        <v>8887776665</v>
-      </c>
-      <c r="D6" t="str">
-        <v>manual</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="G3" t="str">
         <v>Interested</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I3" s="1">
         <v>46042.952731481484</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="str">
-        <v>DB Fix Test</v>
-      </c>
-      <c r="C7" t="str">
-        <v>9999999999</v>
-      </c>
-      <c r="D7" t="str">
-        <v>manual</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Interested</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Rubina</v>
-      </c>
-      <c r="G7" s="1">
-        <v>46042.946863425925</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/leads.xlsx
+++ b/backend/leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -508,9 +508,762 @@
         <v>46042.952731481484</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DB Lead Test</v>
+      </c>
+      <c r="C4" t="str">
+        <v>9999999999</v>
+      </c>
+      <c r="F4" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G4" t="str">
+        <v>new</v>
+      </c>
+      <c r="I4" s="1">
+        <v>46044.77914351852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Ravi</v>
+      </c>
+      <c r="C5" t="str">
+        <v>9999999999</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Meta</v>
+      </c>
+      <c r="G5" t="str">
+        <v>New</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Rubina</v>
+      </c>
+      <c r="I5" s="1">
+        <v>46044.843726851854</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Anil</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8888888888</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Walk-in</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Intrested</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Rubina</v>
+      </c>
+      <c r="I6" s="1">
+        <v>46044.843726851854</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Suresh</v>
+      </c>
+      <c r="C7" t="str">
+        <v>77777777777</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Referral</v>
+      </c>
+      <c r="G7" t="str">
+        <v>New</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Rubina</v>
+      </c>
+      <c r="I7" s="1">
+        <v>46044.843726851854</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Sajay</v>
+      </c>
+      <c r="C8" t="str">
+        <v>8592921212</v>
+      </c>
+      <c r="F8" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G8" t="str">
+        <v>new</v>
+      </c>
+      <c r="I8" s="1">
+        <v>46058.65418981481</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Kumar</v>
+      </c>
+      <c r="C9" t="str">
+        <v>8592921212</v>
+      </c>
+      <c r="F9" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G9" t="str">
+        <v>new</v>
+      </c>
+      <c r="I9" s="1">
+        <v>46058.67275462963</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SK</v>
+      </c>
+      <c r="C10" t="str">
+        <v>8592921212</v>
+      </c>
+      <c r="F10" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G10" t="str">
+        <v>new</v>
+      </c>
+      <c r="I10" s="1">
+        <v>46058.697488425925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>First Lead</v>
+      </c>
+      <c r="C11" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="F11" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G11" t="str">
+        <v>new</v>
+      </c>
+      <c r="I11" s="1">
+        <v>46058.7440162037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>leads test</v>
+      </c>
+      <c r="C12" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="F12" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G12" t="str">
+        <v>new</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46058.74424768519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>VINDIA</v>
+      </c>
+      <c r="C13" t="str">
+        <v>9876543210</v>
+      </c>
+      <c r="F13" t="str">
+        <v>modified</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Contacted</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46058.75099537037</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <v>lead1</v>
+      </c>
+      <c r="C14" t="str">
+        <v>1212121212</v>
+      </c>
+      <c r="E14" t="str">
+        <v>lead1@gmail.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G14" t="str">
+        <v>New</v>
+      </c>
+      <c r="I14" s="1">
+        <v>46059.84881944444</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <v>today 01</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2323232323</v>
+      </c>
+      <c r="E15" t="str">
+        <v>today@gmail.com</v>
+      </c>
+      <c r="F15" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G15" t="str">
+        <v>New</v>
+      </c>
+      <c r="I15" s="1">
+        <v>46060.432800925926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>lead2</v>
+      </c>
+      <c r="C16" t="str">
+        <v>9090909090</v>
+      </c>
+      <c r="E16" t="str">
+        <v>lead2@gmail.com</v>
+      </c>
+      <c r="F16" t="str">
+        <v>meta</v>
+      </c>
+      <c r="G16" t="str">
+        <v>New</v>
+      </c>
+      <c r="I16" s="1">
+        <v>46060.82568287037</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>lead2</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2222222222</v>
+      </c>
+      <c r="D17" t="str">
+        <v>2222222222</v>
+      </c>
+      <c r="E17" t="str">
+        <v>lead2@gmail.com</v>
+      </c>
+      <c r="F17" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G17" t="str">
+        <v>New</v>
+      </c>
+      <c r="I17" s="1">
+        <v>46060.92621527778</v>
+      </c>
+      <c r="J17" t="str">
+        <v>bangalore</v>
+      </c>
+      <c r="K17" t="str">
+        <v>Not Connected</v>
+      </c>
+      <c r="L17" t="str">
+        <v>Residential</v>
+      </c>
+      <c r="M17" t="str">
+        <v>G+1</v>
+      </c>
+      <c r="N17" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O17" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P17" t="str">
+        <v>300000</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>No</v>
+      </c>
+      <c r="R17" t="str">
+        <v>6 months</v>
+      </c>
+      <c r="S17" s="1">
+        <v>46061.00011574074</v>
+      </c>
+      <c r="T17" t="str">
+        <v>construction</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>lead3</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3333333333</v>
+      </c>
+      <c r="D18" t="str">
+        <v>3333333333</v>
+      </c>
+      <c r="E18" t="str">
+        <v>lead3@gmail.com</v>
+      </c>
+      <c r="F18" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G18" t="str">
+        <v>New</v>
+      </c>
+      <c r="H18" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="I18" s="1">
+        <v>46061.502604166664</v>
+      </c>
+      <c r="J18" t="str">
+        <v>bangalore</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L18" t="str">
+        <v>Residential</v>
+      </c>
+      <c r="M18" t="str">
+        <v>G+1</v>
+      </c>
+      <c r="N18" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O18" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P18" t="str">
+        <v>400000</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="R18" t="str">
+        <v>6 months</v>
+      </c>
+      <c r="S18" s="1">
+        <v>46061.00011574074</v>
+      </c>
+      <c r="T18" t="str">
+        <v>ready to construct</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>lead4</v>
+      </c>
+      <c r="C19" t="str">
+        <v>4444444444</v>
+      </c>
+      <c r="D19" t="str">
+        <v>4545454545</v>
+      </c>
+      <c r="E19" t="str">
+        <v>lead4@gmail.com</v>
+      </c>
+      <c r="F19" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G19" t="str">
+        <v>New</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Assistant BDA</v>
+      </c>
+      <c r="I19" s="1">
+        <v>46061.75703703704</v>
+      </c>
+      <c r="J19" t="str">
+        <v>mysore</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L19" t="str">
+        <v>Commercial</v>
+      </c>
+      <c r="M19" t="str">
+        <v>G+1</v>
+      </c>
+      <c r="N19" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O19" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P19" t="str">
+        <v>4500000</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>No</v>
+      </c>
+      <c r="S19" s="1">
+        <v>46061.00011574074</v>
+      </c>
+      <c r="T19" t="str">
+        <v>will start</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>morning</v>
+      </c>
+      <c r="C20" t="str">
+        <v>8989898989</v>
+      </c>
+      <c r="D20" t="str">
+        <v>8989898989</v>
+      </c>
+      <c r="E20" t="str">
+        <v>morning1@gmail.com</v>
+      </c>
+      <c r="F20" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G20" t="str">
+        <v>New</v>
+      </c>
+      <c r="H20" t="str">
+        <v>BDA</v>
+      </c>
+      <c r="I20" s="1">
+        <v>46063.52633101852</v>
+      </c>
+      <c r="J20" t="str">
+        <v>bangalore</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L20" t="str">
+        <v>Residential</v>
+      </c>
+      <c r="M20" t="str">
+        <v>G+2</v>
+      </c>
+      <c r="N20" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O20" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P20" t="str">
+        <v>400000</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="S20" s="1">
+        <v>46064.00011574074</v>
+      </c>
+      <c r="T20" t="str">
+        <v xml:space="preserve">good to work </v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>welcome</v>
+      </c>
+      <c r="C21" t="str">
+        <v>9090909021</v>
+      </c>
+      <c r="D21" t="str">
+        <v>9090909021</v>
+      </c>
+      <c r="E21" t="str">
+        <v>welcome@gmail.com</v>
+      </c>
+      <c r="F21" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G21" t="str">
+        <v>New</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Assistant BDA</v>
+      </c>
+      <c r="I21" s="1">
+        <v>46063.52762731481</v>
+      </c>
+      <c r="J21" t="str">
+        <v>mandiya</v>
+      </c>
+      <c r="K21" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L21" t="str">
+        <v>Commercial</v>
+      </c>
+      <c r="M21" t="str">
+        <v>G</v>
+      </c>
+      <c r="N21" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O21" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P21" t="str">
+        <v>300000</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>No</v>
+      </c>
+      <c r="S21" s="1">
+        <v>46065.00011574074</v>
+      </c>
+      <c r="T21" t="str">
+        <v>will work</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ravan</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0909090909</v>
+      </c>
+      <c r="D22" t="str">
+        <v>9090909090</v>
+      </c>
+      <c r="E22" t="str">
+        <v>ravan@gmail.com</v>
+      </c>
+      <c r="F22" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G22" t="str">
+        <v>New</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Manager</v>
+      </c>
+      <c r="I22" s="1">
+        <v>46064.40230324074</v>
+      </c>
+      <c r="J22" t="str">
+        <v>hyderabad</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Residential</v>
+      </c>
+      <c r="M22" t="str">
+        <v>G</v>
+      </c>
+      <c r="N22" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O22" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P22" t="str">
+        <v>300000</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="S22" s="1">
+        <v>46064.00011574074</v>
+      </c>
+      <c r="T22" t="str">
+        <v>happening</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>construction2</v>
+      </c>
+      <c r="C23" t="str">
+        <v>2222211111</v>
+      </c>
+      <c r="D23" t="str">
+        <v>2222211111</v>
+      </c>
+      <c r="E23" t="str">
+        <v>construction@gmail.com</v>
+      </c>
+      <c r="F23" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G23" t="str">
+        <v>New</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Assistant BDA</v>
+      </c>
+      <c r="I23" s="1">
+        <v>46064.42024305555</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Andhra</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Connected</v>
+      </c>
+      <c r="L23" t="str">
+        <v>Commercial</v>
+      </c>
+      <c r="M23" t="str">
+        <v>G+1</v>
+      </c>
+      <c r="N23" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O23" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P23" t="str">
+        <v>400000</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="S23" s="1">
+        <v>46064.00011574074</v>
+      </c>
+      <c r="T23" t="str">
+        <v>ready to start</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>mrng02</v>
+      </c>
+      <c r="C24" t="str">
+        <v>333332222</v>
+      </c>
+      <c r="D24" t="str">
+        <v>333332222</v>
+      </c>
+      <c r="E24" t="str">
+        <v>mrng02@gmail.com</v>
+      </c>
+      <c r="F24" t="str">
+        <v>manual</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Converted</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Assistant BDA</v>
+      </c>
+      <c r="I24" s="1">
+        <v>46064.472650462965</v>
+      </c>
+      <c r="J24" t="str">
+        <v>chennai</v>
+      </c>
+      <c r="K24" t="str">
+        <v>Not Connected</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Residential</v>
+      </c>
+      <c r="M24" t="str">
+        <v>G+1</v>
+      </c>
+      <c r="N24" t="str">
+        <v>30 40</v>
+      </c>
+      <c r="O24" t="str">
+        <v>2500</v>
+      </c>
+      <c r="P24" t="str">
+        <v>400000</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="S24" s="1">
+        <v>46065.00011574074</v>
+      </c>
+      <c r="T24" t="str">
+        <v>okay</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T24"/>
   </ignoredErrors>
 </worksheet>
 </file>